--- a/additional_info.xlsx
+++ b/additional_info.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\saficheema\fish.restocking.ab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74013101-8982-4A50-8AB5-87D61A80D1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9221BA7C-572D-46D8-BA5E-A5BB150244AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPECIES CODE" sheetId="1" r:id="rId1"/>
     <sheet name="IMG RUL" sheetId="2" r:id="rId2"/>
     <sheet name="GEO. INFO" sheetId="3" r:id="rId3"/>
+    <sheet name="SEASON" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'IMG RUL'!$A$1:$B$1</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="1504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1522">
   <si>
     <t>Species Common Name</t>
   </si>
@@ -4543,13 +4544,67 @@
   </si>
   <si>
     <t>SE36-56-7-W4</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>SEASON</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Spring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4597,6 +4652,12 @@
       <sz val="10"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4936,7 +4997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
@@ -6039,8 +6100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4B2297-DA91-4888-AEC3-B3AD8ABC555A}">
   <dimension ref="A1:H427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16696,4 +16757,128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904C4BD1-5EA5-4EE9-BC92-405DE279AF21}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>